--- a/medicine/Enfance/Markus_Zusak/Markus_Zusak.xlsx
+++ b/medicine/Enfance/Markus_Zusak/Markus_Zusak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Markus Zusak, né le 23 juin 1975 à Sydney, est un écrivain australien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 23 juin 1975 à Sydney en Australie, Markus Zusak est le plus jeune d'une famille de quatre enfants dont les parents sont d'origine allemande et autrichienne. Il vit avec sa famille à Sydney où il enseigne l'anglais à l'université.
 En 1999 paraît son premier livre The Underdog, qui connaît un succès en Australie avant d'être publié en Europe, aux États-Unis et traduit dans de nombreuses langues.
@@ -549,14 +563,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Underdogs
-(en) The Underdog, 1999
+          <t>Série Underdogs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The Underdog, 1999
 Combat de frères, Hachette Jeunesse, 2003 ((en) Fighting Ruben Wolfe, 2000)  (ISBN 2-01-322122-3)
-(en) When Dogs Cry, 2001
-Romans indépendants
-Le Messager (en), Kéro, 2014 ((en) The Messenger, 2002)  (ISBN 978-2-36658-092-1)
-La Voleuse de livres, Oh ! Éditions, 2007 ((en) The Book Thief, 2005)  (ISBN 978-2-915056-48-8)Réédition, Pocket, 2008  (ISBN 978-2-266-17596-8)
-Le Pont d'argile, Calmann-Lévy, 2019 ((en) The Bridge of Clay, 2018)  (ISBN 978-2-7021-6557-7)</t>
+(en) When Dogs Cry, 2001</t>
         </is>
       </c>
     </row>
@@ -581,10 +596,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Messager (en), Kéro, 2014 ((en) The Messenger, 2002)  (ISBN 978-2-36658-092-1)
+La Voleuse de livres, Oh ! Éditions, 2007 ((en) The Book Thief, 2005)  (ISBN 978-2-915056-48-8)Réédition, Pocket, 2008  (ISBN 978-2-266-17596-8)
+Le Pont d'argile, Calmann-Lévy, 2019 ((en) The Bridge of Clay, 2018)  (ISBN 978-2-7021-6557-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Markus_Zusak</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Markus_Zusak</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Voleuse de livres, film réalisé par Brian Percival et sorti en 2013, d'après le roman du même nom
 The Messenger (en), série télévisée diffusée à partir de 2023, d'après le roman du même nom</t>
